--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A15158C-018A-4881-B009-133795881B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+  <si>
+    <t>MCAL: time Left =  0.008 s  0.002 s</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t>Runs       Left Rotations Right Rotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.5000     3.9500     0.4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t>Average Left =  3.75625</t>
+  </si>
+  <si>
+    <t>Average Right =  3.941666666666668</t>
+  </si>
+  <si>
+    <t>Average Error =  0.20208333333333361</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.13958333333333336</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.014583333333332338</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.007623678646934458 s  0.002376321353065542 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19     3.9500     2.8000    -1.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t>Average Left =  3.829166666666668</t>
+  </si>
+  <si>
+    <t>Average Right =  3.864583333333334</t>
+  </si>
+  <si>
+    <t>Average Error =  0.20625000000000018</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.1184027777777777</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.10729166666666647</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.0079266846361186 s  0.0020733153638814 s</t>
+  </si>
+  <si>
+    <t>Not on ground</t>
+  </si>
+  <si>
+    <t>Before change</t>
+  </si>
+  <si>
+    <t>After Change</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +533,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A15158C-018A-4881-B009-133795881B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A7A7DF-A0C9-49A8-A28C-8ECBD3922D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -45,9 +45,15 @@
     <t xml:space="preserve">         5     3.6500     3.9500     0.3000</t>
   </si>
   <si>
+    <t xml:space="preserve">         6     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">         9     3.6500     3.9500     0.3000</t>
   </si>
   <si>
+    <t xml:space="preserve">        12     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">        13     3.7000     3.9500     0.2500</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
     <t xml:space="preserve">        17     3.6500     3.9500     0.3000</t>
   </si>
   <si>
+    <t xml:space="preserve">        19     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
     <t xml:space="preserve">        21     3.6500     3.9500     0.3000</t>
   </si>
   <si>
@@ -217,6 +226,141 @@
   </si>
   <si>
     <t>After Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.5500     3.9500     0.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.5000     3.9500     0.4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.5500     3.9500     0.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.6000     3.9500     0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18     3.9500     3.7000    -0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21     3.4500     3.9500     0.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t>Average Left =  3.785416666666668</t>
+  </si>
+  <si>
+    <t>Average Right =  3.9041666666666672</t>
+  </si>
+  <si>
+    <t>Average Error =  0.21041666666666684</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.16284722222222203</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.05347222222222222</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.007756670224119532 s  0.002243329775880468 s</t>
+  </si>
+  <si>
+    <t>On ground</t>
+  </si>
+  <si>
+    <t>No change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.9500     3.7500    -0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.9500     3.6000    -0.3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.9500     3.7500    -0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.9500     3.6500    -0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.9500     3.7500    -0.2000</t>
+  </si>
+  <si>
+    <t>Average Left =  3.91875</t>
+  </si>
+  <si>
+    <t>Average Right =  3.853125000000001</t>
+  </si>
+  <si>
+    <t>Average Error =  0.1281250000000002</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.03906250000000008</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.09609374999999984</t>
+  </si>
+  <si>
+    <t>MCAL: time Left =  0.007866028708133972 s  0.002133971291866028 s</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.008 s  0.002 s</t>
+  </si>
+  <si>
+    <t>forwar only</t>
   </si>
 </sst>
 </file>
@@ -534,31 +678,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,7 +715,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -579,7 +723,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -587,10 +731,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,15 +742,15 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,151 +758,151 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,42 +915,42 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,10 +963,323 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A7A7DF-A0C9-49A8-A28C-8ECBD3922D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8755197-05A1-4C3A-851D-83AE9337BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -361,6 +361,279 @@
   </si>
   <si>
     <t>forwar only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.4500     3.4000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.4000     3.4500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.2000     3.4500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.2000     3.4500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.4000     3.4500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.2000     3.4500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.4500     3.4000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.2500     3.4500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.4000     3.4500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.4000     3.4500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.4500     3.4000    -0.0500</t>
+  </si>
+  <si>
+    <t>Average Left =  3.3470588235294123</t>
+  </si>
+  <si>
+    <t>Average Right =  3.441176470588236</t>
+  </si>
+  <si>
+    <t>Average Error =  0.1117647058823531</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.0633217993079582</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.014532871972318078</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.007781196581196581 s  0.002218803418803419 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.4500     3.3500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.4500     3.4000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.3000     3.4500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.3000     3.4500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.3500     3.4500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.3000     3.4500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.3000     3.4500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.3000     3.4500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.2000     3.4500     0.2500</t>
+  </si>
+  <si>
+    <t>Average Left =  3.3294117647058825</t>
+  </si>
+  <si>
+    <t>Average Error =  0.12941176470588253</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.04775086505190318</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.01557093425605502</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.00774017094017094 s  0.0022598290598290606 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.6500     3.9500     0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18     3.7000     3.9500     0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20     3.7500     3.9500     0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23     3.8000     3.9500     0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t>Average Left =  3.7760000000000002</t>
+  </si>
+  <si>
+    <t>Average Right =  3.9500000000000015</t>
+  </si>
+  <si>
+    <t>Average Error =  0.17400000000000013</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.06095999999999993</t>
+  </si>
+  <si>
+    <t>Average Right Error =  1.3322676295501878e-15</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.007647594936708859 s  0.0023524050632911415 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YOU HAVE 10s TO MOVE ME TO STARTING POSITION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     3.8500     3.9500     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     3.9000     3.9500     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     3.9500     3.9000    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20     3.9500     3.8000    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21     3.9500     3.7500    -0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24     3.9500     3.8500    -0.1000</t>
+  </si>
+  <si>
+    <t>Average Left =  3.9340000000000015</t>
+  </si>
+  <si>
+    <t>Average Right =  3.8719999999999986</t>
+  </si>
+  <si>
+    <t>Average Error =  0.0940000000000002</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.02559999999999924</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.04687999999999995</t>
+  </si>
+  <si>
+    <t>MCAL: time Left =  0.007873919674631413 s  0.002126080325368587 s</t>
+  </si>
+  <si>
+    <t>20 runs</t>
+  </si>
+  <si>
+    <t>this is result of settings to left</t>
   </si>
 </sst>
 </file>
@@ -678,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="F124" workbookViewId="0">
+      <selection activeCell="AA139" sqref="AA139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,44 +1515,499 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q111" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="I114" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="I115" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="I116" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="I117" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="I119" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="I120" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="I121" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="I123" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="I125" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="I126" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="I127" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="I128" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="I129" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="I130" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q132" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="I133" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="I134" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="I135" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="I136" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="I137" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="I139" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q141" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q142" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q143" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q144" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q145" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q146" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q147" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q149" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8755197-05A1-4C3A-851D-83AE9337BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF9CAD-A593-40E0-868E-ED616C0F077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F124" workbookViewId="0">
-      <selection activeCell="AA139" sqref="AA139"/>
+      <selection activeCell="V134" sqref="V134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF9CAD-A593-40E0-868E-ED616C0F077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39D956-6FB5-4BC1-A189-AF5868C2D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="416">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -634,19 +636,1000 @@
   </si>
   <si>
     <t>this is result of settings to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     4.9000     4.8000    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1     4.9000     4.8500    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     4.8000     4.9000     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     4.9000     4.8000    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     4.9000     4.8500    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     4.8000     4.9000     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6     4.8500     4.9000     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     4.9000     4.8000    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     4.8000     4.9000     0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     4.9000     4.6500    -0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     4.9000     4.7000    -0.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     4.9000     4.8500    -0.0500</t>
+  </si>
+  <si>
+    <t>Average Left =  4.876666666666666</t>
+  </si>
+  <si>
+    <t>Average Right =  4.809999999999999</t>
+  </si>
+  <si>
+    <t>Average Error =  0.11333333333333381</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.034222222222222834</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.06399999999999993</t>
+  </si>
+  <si>
+    <t>MCAL: time Left =  0.007890635680109363 s  0.0021093643198906373 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0     4.9000     4.6000    -0.3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2     4.9000     4.8000    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5     4.9000     4.8500    -0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7     4.9000     4.6500    -0.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10     4.9000     4.8000    -0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12     4.8500     4.9000     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13     4.8500     4.9000     0.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14     4.9000     4.7500    -0.1500</t>
+  </si>
+  <si>
+    <t>Average Left =  4.89</t>
+  </si>
+  <si>
+    <t>Average Right =  4.783333333333333</t>
+  </si>
+  <si>
+    <t>Average Error =  0.12666666666666718</t>
+  </si>
+  <si>
+    <t>Average Left Error =  0.01600000000000055</t>
+  </si>
+  <si>
+    <t>Average Right Error =  0.06888888888888887</t>
+  </si>
+  <si>
+    <t>MCAL: time Left =  0.007825494205862303 s  0.0021745057941376968 s</t>
+  </si>
+  <si>
+    <t>MCAL: time Right =  0.007890635680109363 s  0.0021093643198906373 s</t>
+  </si>
+  <si>
+    <t>Using lefts settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF </t>
+  </si>
+  <si>
+    <r>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_sigma_r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_sigma_theta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_sigma_odo_x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_sigma_odo_y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_sigma_odo_theta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>VERY GOOOD PERFECT</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  200</t>
+  </si>
+  <si>
+    <t>TIME =  0.8881371021270752 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.9570594426966992  rotations/s, ROTATIONS =  0.85 , TICKS =  17</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.1259522855255284  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  0.0</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.15000000000000002</t>
+  </si>
+  <si>
+    <t>Angle Diff exists</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  8.210526315789473</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  8.210526315789473</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  8.210526315789473</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  173.57299411083608</t>
+  </si>
+  <si>
+    <t>ret/cpp = 0</t>
+  </si>
+  <si>
+    <t>LEAVNG RUN</t>
+  </si>
+  <si>
+    <t>please enter something: l</t>
+  </si>
+  <si>
+    <t>Entering scan loop</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 2</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 173.573mm and 8.21053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=391.097, y=21.831, w=5.9261 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8228B x size = 8228</t>
+  </si>
+  <si>
+    <t>LM: Corners = (1825.41,1014.58),(-800.464,1043.56),(1846.36,-1234.9),</t>
+  </si>
+  <si>
+    <t>DATA: NUMBER OF CORNERS POINTS = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1825.41,1014.58) | (-800.464,1043.56) | (1846.36,-1234.9) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=400.863, y=26.7821, w=-0.816186 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=422.512, y=3.50905, w=1.25794 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=426.414, y=-5.70786, w=0.65447 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=426.414, y=-5.70786, w=0.65447 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2248.97,1012.61) | (-404.913,1011.88) | (2299.4,-1218.1) | </t>
+  </si>
+  <si>
+    <t>MAIN: Store Map Points</t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (426.414,-5.70786) | 0.65447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERY ACCURATE SCAN @ 99.1857 %</t>
+  </si>
+  <si>
+    <t>No of New Points = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSV: Saving Full Map (overwriting old)</t>
+  </si>
+  <si>
+    <t>GRID: In grid data process</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmin: 2323.25, xmax-467.364, ymin1096.63, ymax-1352.82</t>
+  </si>
+  <si>
+    <t>Points Pushed = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traversed = (400,0) 1</t>
+  </si>
+  <si>
+    <t>GRID:SAVED TO CSV</t>
+  </si>
+  <si>
+    <t>In pre-map movement</t>
+  </si>
+  <si>
+    <t>NAVI: Find Point Straight</t>
+  </si>
+  <si>
+    <t>NAVI: nextPoint: We on Y-axis and point on y exists</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (800,-800)</t>
+  </si>
+  <si>
+    <t>In PathFinder</t>
+  </si>
+  <si>
+    <t>Start = 400, 0</t>
+  </si>
+  <si>
+    <t>Goal = 800, -800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GridMap size = 10Path: (400, 0) (800, 0) (800, -400) (800, -800) </t>
+  </si>
+  <si>
+    <t>Dumped Traversed = (800,-400) 1</t>
+  </si>
+  <si>
+    <t>Shortened Path: (800,0)(800,-800)</t>
+  </si>
+  <si>
+    <t>mapped = 0Go to -&gt; (800,0)</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (800,0)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = 0.220859</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 373.355</t>
+  </si>
+  <si>
+    <t>NAVI,GRID to visit: (800,0)</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = 0.220859 deg Set Distance = 373.355mm</t>
+  </si>
+  <si>
+    <t>NAVI: Run python</t>
+  </si>
+  <si>
+    <t>MC started</t>
+  </si>
+  <si>
+    <t>MC:TURN:  0.0  deg</t>
+  </si>
+  <si>
+    <t>ThetaL =  -0.0 ThetaR =  0.0</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE ! set to 4000mm</t>
+  </si>
+  <si>
+    <t>TIME =  0.9017853736877441 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.108911309916925  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.0534657444210787  rotations/s, ROTATIONS =  0.95 , TICKS =  19</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.050000000000000044</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  0.0</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  0.0</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  204.20352248333654</t>
+  </si>
+  <si>
+    <t>Y too big</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 3</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 204.204mm and 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=630.604, y=-3.37536, w=0.65447 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8282B x size = 8282</t>
+  </si>
+  <si>
+    <t>LM: Corners = (1544.54,1105.14),(1677.33,-1254.13),</t>
+  </si>
+  <si>
+    <t>DATA: NUMBER OF CORNERS POINTS = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1544.54,1105.14) | (1677.33,-1254.13) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=637.941, y=0.977175, w=-3.29755 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=623.361, y=20.4457, w=-1.65099 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=623.361, y=20.4457, w=-1.65099 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2251.62,1006.17) | (-404.909,1011.35) | (2297.29,-1227.44) | </t>
+  </si>
+  <si>
+    <t>TIME =  0.8591809272766113 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.0475092863767064  rotations/s, ROTATIONS =  0.9 , TICKS =  18</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.1638992070852294  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.09999999999999998</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  4.105263157894732</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  4.105263157894732</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  4.105263157894732</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  183.7831702350029</t>
+  </si>
+  <si>
+    <t>please enter something: ^[[A</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8244</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 4</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 183.783mm and 4.10526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=812.021, y=34.1536, w=2.45427 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8244B x size = 8244</t>
+  </si>
+  <si>
+    <t>LM: Corners = (1329.15,1104.88),(1453.36,-1237.79),(-1250.23,-925.428),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1329.15,1104.88) | (1453.36,-1237.79) | (-1250.23,-925.428) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=817.531, y=37.5571, w=-5.57942 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=834.519, y=15.9653, w=-2.57937 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=834.519, y=15.9653, w=-2.57937 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2250.02,1008.23) | (-405.6,1011.64) | (2301.65,-1216.42) | (-456.087,-852.261) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (834.519,15.9653) | -2.57937</t>
+  </si>
+  <si>
+    <t>Y still too big</t>
+  </si>
+  <si>
+    <t>TIME =  0.8993337154388428 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.0563375793561056  rotations/s, ROTATIONS =  0.95 , TICKS =  19</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.1119342940590586  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  193.99334635916972</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8289</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 5</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 193.993mm and 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=1028.32, y=7.23491, w=-2.57937 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8289B x size = 8289</t>
+  </si>
+  <si>
+    <t>LM: Corners = (1204.43,-1242.41),</t>
+  </si>
+  <si>
+    <t>DATA: NUMBER OF CORNERS POINTS = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1204.43,-1242.41) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1047.36, y=-10.1398, w=1.54295 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=1047.36, y=-10.1398, w=1.54295 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2248.52,1009.54) | (-406.475,1011.83) | (2305.56,-1207.19) | (-455.449,-851.831) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (1047.36,-10.1398) | 1.54295</t>
+  </si>
+  <si>
+    <t>Rotated too positive</t>
+  </si>
+  <si>
+    <t>TIME =  0.9401736259460449 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.0104516589093502  rotations/s, ROTATIONS =  0.95 , TICKS =  19</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.063633325167737  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=1241.29, y=-4.91631, w=1.54295 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8285B x size = 8285</t>
+  </si>
+  <si>
+    <t>LM: Corners = (898.388,1087.76),(959.527,-1252.79),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(898.388,1087.76) | (959.527,-1252.79) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1252.07, y=2.70105, w=-4.63455 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1264.56, y=-11.5837, w=-0.218542 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=1264.56, y=-11.5837, w=-0.218542 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2251.44,1000.26) | (-407.656,1012) | (2307.21,-1202.32) | (-456.615,-852.616) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (1264.56,-11.5837) | -0.218542</t>
+  </si>
+  <si>
+    <t>Too left and too up</t>
+  </si>
+  <si>
+    <t>TIME =  0.8979246616363525 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.0579952200764224  rotations/s, ROTATIONS =  0.95 , TICKS =  19</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.113679179027813  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=1458.56, y=-12.3237, w=-0.218542 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8240B x size = 8240</t>
+  </si>
+  <si>
+    <t>LM: Corners = (655.171,1099.06),(743.668,-1256.17),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(655.171,1099.06) | (743.668,-1256.17) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1460.97, y=-8.90616, w=-7.27643 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1462.26, y=-10.3207, w=-1.25782 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=1462.26, y=-10.3207, w=-1.25782 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2252.36,997.613) | (-407.979,1012.05) | (2307.47,-1201.18) | (-457.084,-852.931) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (1462.26,-10.3207) | -1.25782</t>
+  </si>
+  <si>
+    <t>TIME =  0.8483915328979492 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.178701061035091  rotations/s, ROTATIONS =  1.0 , TICKS =  20</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.060830954931582  rotations/s, ROTATIONS =  0.9 , TICKS =  18</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  -4.105263157894732</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -4.105263157894732</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -4.105263157894732</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 8</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 204.204mm and -4.10526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=1670.31, y=-35.4934, w=-5.36308 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8214B x size = 8214</t>
+  </si>
+  <si>
+    <t>LM: Corners = (394.152,1135.09),(575.547,-1201.79),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(394.152,1135.09) | (575.547,-1201.79) | </t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1667.97, y=-44.5096, w=-10.144 deg</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1665.14, y=-40.4455, w=-3.48454 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=1665.14, y=-40.4455, w=-3.48454 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2249.87,1005.72) | (-406.708,1011.84) | (2305.77,-1206.92) | (-455.162,-851.638) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (1665.14,-40.4455) | -3.48454</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF66D9EF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAE81FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -669,8 +1652,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,6 +1675,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27809</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55447E33-0779-0A21-AA3A-665EB1220629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6123809" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>46857</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD60350C-A3A5-C5BA-64A5-B890282E299C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39014400" y="0"/>
+          <a:ext cx="6142857" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F124" workbookViewId="0">
-      <selection activeCell="V134" sqref="V134"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +3068,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q145" t="s">
         <v>175</v>
       </c>
@@ -1989,7 +3076,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q146" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +3084,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q147" t="s">
         <v>176</v>
       </c>
@@ -2005,13 +3092,1279 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q149" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>203</v>
+      </c>
+      <c r="H153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>204</v>
+      </c>
+      <c r="H154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>205</v>
+      </c>
+      <c r="H155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>206</v>
+      </c>
+      <c r="H156" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>207</v>
+      </c>
+      <c r="H157" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>208</v>
+      </c>
+      <c r="H158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>211</v>
+      </c>
+      <c r="H161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>212</v>
+      </c>
+      <c r="H162" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>213</v>
+      </c>
+      <c r="H163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>214</v>
+      </c>
+      <c r="H164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>215</v>
+      </c>
+      <c r="H165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>216</v>
+      </c>
+      <c r="H166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>217</v>
+      </c>
+      <c r="H167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>218</v>
+      </c>
+      <c r="H170" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>219</v>
+      </c>
+      <c r="H171" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>220</v>
+      </c>
+      <c r="H172" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>221</v>
+      </c>
+      <c r="H173" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>222</v>
+      </c>
+      <c r="H174" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>223</v>
+      </c>
+      <c r="H175" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>110</v>
+      </c>
+      <c r="H176" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3D6633-2CC7-4F1A-AD10-FE970B6A606B}">
+  <dimension ref="A29:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F733394-3A19-4772-B5F7-F53608AF94DA}">
+  <dimension ref="A1:BD86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" t="s">
+        <v>305</v>
+      </c>
+      <c r="S2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="S3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" t="s">
+        <v>307</v>
+      </c>
+      <c r="S4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+      <c r="S5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" t="s">
+        <v>309</v>
+      </c>
+      <c r="S6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+      <c r="S7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>310</v>
+      </c>
+      <c r="S8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" t="s">
+        <v>311</v>
+      </c>
+      <c r="S9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" t="s">
+        <v>312</v>
+      </c>
+      <c r="S10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" t="s">
+        <v>254</v>
+      </c>
+      <c r="S11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" t="s">
+        <v>313</v>
+      </c>
+      <c r="S12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" t="s">
+        <v>314</v>
+      </c>
+      <c r="S13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" t="s">
+        <v>313</v>
+      </c>
+      <c r="S14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>263</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" t="s">
+        <v>315</v>
+      </c>
+      <c r="S15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" t="s">
+        <v>261</v>
+      </c>
+      <c r="S17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>387</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" t="s">
+        <v>262</v>
+      </c>
+      <c r="S18" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" t="s">
+        <v>263</v>
+      </c>
+      <c r="S19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>373</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" t="s">
+        <v>264</v>
+      </c>
+      <c r="S20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21" t="s">
+        <v>264</v>
+      </c>
+      <c r="S21" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="S23" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" t="s">
+        <v>319</v>
+      </c>
+      <c r="S24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>389</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="S26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="S28" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="S30" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>322</v>
+      </c>
+      <c r="S31" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>323</v>
+      </c>
+      <c r="S32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>324</v>
+      </c>
+      <c r="S33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>395</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="S35" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="S36" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AB37" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="S38" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="S39" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+      <c r="S40" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>280</v>
+      </c>
+      <c r="S41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA29E4-30EB-4F8E-85D2-23F70F207A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325DE48E-7199-44B7-BE26-7D200971ED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="2178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="2403">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -6875,6 +6879,681 @@
   </si>
   <si>
     <t xml:space="preserve"> NOT ACCURATE SCAN @ 10.4711 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !! Resetting distance,  978.441  to 900mm</t>
+  </si>
+  <si>
+    <t>AVOIDANCE TURN: left or right or both are too close to obstacle; LEFT =  66.49  RIGHT =  48.45</t>
+  </si>
+  <si>
+    <t>For safety add 30 to reverseTotal</t>
+  </si>
+  <si>
+    <t>Set Reverse Threads</t>
+  </si>
+  <si>
+    <t>TIME =  0.4804658889770508 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.5203283016246365  rotations/s, ROTATIONS =  0.25 , TICKS =  5</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.6243939619495638  rotations/s, ROTATIONS =  0.3 , TICKS =  6</t>
+  </si>
+  <si>
+    <t>Avoidance reverse for:  51.55 mm True value =  51.050880620834135 mm</t>
+  </si>
+  <si>
+    <t>MC:TURN:  -25.453363569789257  deg</t>
+  </si>
+  <si>
+    <t>TIME =  0.6336984634399414 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.6312150385037345  rotations/s, ROTATIONS =  0.4 , TICKS =  8</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.07890187981296681  rotations/s, ROTATIONS =  0.05 , TICKS =  1</t>
+  </si>
+  <si>
+    <t>ThetaL =  -32.842105263157904 ThetaR =  4.105263157894738</t>
+  </si>
+  <si>
+    <t>TIME =  35.691726207733154 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.12047610067871527  rotations/s, ROTATIONS =  4.3 , TICKS =  86</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.12467875535355419  rotations/s, ROTATIONS =  4.45 , TICKS =  89</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  -32.842105263157904</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.15000000000000036</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  8.210526315789519</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -24.631578947368386</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -16.421052631578863</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -24.631578947368386</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  878.0751466783472</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  100000.0  || measured =  12086.19</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1266.28  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>MC:TURN:  173.2297786532385  deg</t>
+  </si>
+  <si>
+    <t>TIME =  1.92976975440979 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.025909826747850674  rotations/s, ROTATIONS =  0.05 , TICKS =  1</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.1400323769054297  rotations/s, ROTATIONS =  2.2 , TICKS =  44</t>
+  </si>
+  <si>
+    <t>ThetaL =  -4.105263157894738 ThetaR =  180.63157894736847</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 921.43  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 931.36  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  286.852</t>
+  </si>
+  <si>
+    <t>TIME =  1.1411054134368896 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.2268805173602209  rotations/s, ROTATIONS =  1.4 , TICKS =  28</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.2706976786945146  rotations/s, ROTATIONS =  1.45 , TICKS =  29</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  180.63157894736847</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  180.63157894736847</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  180.63157894736847</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  180.63157894736847</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  285.88493147667117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 12</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 285.885mm and 180.632</t>
+  </si>
+  <si>
+    <t>D: x = 284.436, y = 28.7437, a = 180.632</t>
+  </si>
+  <si>
+    <t>used%: x = 121.063, y = 96.8547, a =-3.30001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=1634.87, y=-885.126, w=5.77043 deg</t>
+  </si>
+  <si>
+    <t>Group size = 338</t>
+  </si>
+  <si>
+    <t>Points: (-2046.22,489.678), (-2053.47,789.078), (-2062.83,1087.65)</t>
+  </si>
+  <si>
+    <t>distance = 598.198</t>
+  </si>
+  <si>
+    <t>Inter Angle = 0.408305</t>
+  </si>
+  <si>
+    <t>mA= -41.3169, cA= -84053.9, mB= -31.9132, cB= -64743.8</t>
+  </si>
+  <si>
+    <t>FALSE CORNER</t>
+  </si>
+  <si>
+    <t>Group size = 784</t>
+  </si>
+  <si>
+    <t>Points: (687.864,92.0802), (689.924,-206.97), (391.041,-188.263)</t>
+  </si>
+  <si>
+    <t>distance = 408.284</t>
+  </si>
+  <si>
+    <t>Inter Angle = 86.0239</t>
+  </si>
+  <si>
+    <t>mA= -145.161, cA= 99943.5, mB= -0.0625893, cB= -163.788</t>
+  </si>
+  <si>
+    <t>TRUE CORNER</t>
+  </si>
+  <si>
+    <t>close corner len = 2</t>
+  </si>
+  <si>
+    <t>true corner len = 1</t>
+  </si>
+  <si>
+    <t>-206.97,LM: Corners = (689.924,-206.97),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(689.924,-206.97) | </t>
+  </si>
+  <si>
+    <t>D: r = -19.1116, a = 14.354</t>
+  </si>
+  <si>
+    <t>G: r = 13.7024, a = -8.70892</t>
+  </si>
+  <si>
+    <t>used%: r = -71.6969, a = -100.873</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=1647.76, y=-889.765, w=-8.70892 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=1647.76, y=-889.765, w=-8.70892 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-479.647,954.057) | (2184.79,1036.95) | (-410.644,-859.163) | (2303.01,-1200.66) | (772.669,168.711) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (1647.76,-889.765) | -8.70892</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT ACCURATE SCAN @ 3.9622 %</t>
+  </si>
+  <si>
+    <t>No of New Points = 4351</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 2545.15, xmin-432.054, ymax1393.93, ymin-1292.96</t>
+  </si>
+  <si>
+    <t>Follow Path(1600,-400)</t>
+  </si>
+  <si>
+    <t>mapped = 0Go to -&gt; (1600,-400)</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (1600,-400)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = 104.279</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 322.46</t>
+  </si>
+  <si>
+    <t>NAVI,GRID to visit: (1600,-400)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVI: avoidFor Points: </t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (0,0), From: (1641.25,-719.811) To : (1600,-400)</t>
+  </si>
+  <si>
+    <t>NAVI: m: -7.75349, c = 12005.6</t>
+  </si>
+  <si>
+    <t>NAVI: Predicted Dist = 100000</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = 104.279 deg Set Distance = 322.46mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 584.59  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 588.19  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>MC:TURN:  104.27831871380984  deg</t>
+  </si>
+  <si>
+    <t>TIME =  1.2818052768707275 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.03900748491382798  rotations/s, ROTATIONS =  0.05 , TICKS =  1</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.0532020926733554  rotations/s, ROTATIONS =  1.35 , TICKS =  27</t>
+  </si>
+  <si>
+    <t>ThetaL =  -4.105263157894738 ThetaR =  110.84210526315789</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  100000.0  || measured =  12084.68</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 2299.59  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  322.46</t>
+  </si>
+  <si>
+    <t>TIME =  1.2801344394683838 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.2498687252445537  rotations/s, ROTATIONS =  1.6 , TICKS =  32</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.171751929916769  rotations/s, ROTATIONS =  1.5 , TICKS =  30</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  110.84210526315789</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.10000000000000009</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  -4.105263157894741</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  106.73684210526315</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  102.63157894736841</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  106.73684210526315</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  326.7256359733385</t>
+  </si>
+  <si>
+    <t>Points: (1178.98,1210.83), (1047.42,1464.12), (770.755,1349.39)</t>
+  </si>
+  <si>
+    <t>distance = 431.099</t>
+  </si>
+  <si>
+    <t>Inter Angle = 85.0766</t>
+  </si>
+  <si>
+    <t>mA= -1.92527, cA= 3480.68, mB= 0.414711, cB= 1029.75</t>
+  </si>
+  <si>
+    <t>close corner len = 5</t>
+  </si>
+  <si>
+    <t>true corner len = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 291.661,-586.826</t>
+  </si>
+  <si>
+    <t>-1295.46,1047.42</t>
+  </si>
+  <si>
+    <t>1464.12,LM: Corners = (-1322.52,291.661),(-586.826,-1295.46),(1047.42,1464.12),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1322.52,291.661) | (-586.826,-1295.46) | (1047.42,1464.12) | </t>
+  </si>
+  <si>
+    <t>D: r = 70.7509, a = 1.94946</t>
+  </si>
+  <si>
+    <t>G: r = 38.6765, a = -24.1866</t>
+  </si>
+  <si>
+    <t>used%: r = 54.6658, a = -73.0298</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=607.357, y=184.576, w=-24.1866 deg</t>
+  </si>
+  <si>
+    <t>D: r = -64.1169, a = -3.65459</t>
+  </si>
+  <si>
+    <t>G: r = 46.822, a = -23.2668</t>
+  </si>
+  <si>
+    <t>used%: r = -73.026, a = -25.1682</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=581.853, y=145.31, w=-23.2668 deg</t>
+  </si>
+  <si>
+    <t>D: r = -7.73743, a = 1.88882</t>
+  </si>
+  <si>
+    <t>G: r = 2.58242, a = -23.9294</t>
+  </si>
+  <si>
+    <t>used%: r = -33.3756, a = -35.0786</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=583.991, y=146.758, w=-23.9294 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=583.991, y=146.758, w=-23.9294 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-470.062,971.595) | (2272.6,-1215.39) | (2159.23,1024.65) | (783.819,-213.993) | (-439.826,-864.167) | (2452.35,-460.784) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (583.991,146.758) | -23.9294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT ACCURATE SCAN @ 30.2943 %</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 2331.75, xmin-626.915, ymax1268.29, ymin-1234.1</t>
+  </si>
+  <si>
+    <t>GridMap size = 7</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = -33.0206</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 1078.24</t>
+  </si>
+  <si>
+    <t>NAVI: avoidFor Points: (828.124,-172.994)(829.105,-168.227)(828.05,-163.307)(826.996,-158.244)(827.893,-153.485)(826.793,-148.366)(827.633,-143.608)(826.46,-138.593)(825.231,-133.755)(825.986,-129.006)(826.715,-124.252)(825.425,-119.288)(826.098,-114.538)(826.711,-110.021)(825.346,-105.012)(825.927,-100.341)(824.685,-93.7777)(825.211,-89.0322)(826.216,-172.347)(827.193,-167.592)(828.128,-162.91)(827.087,-157.769)(827.937,-153.247)(826.836,-148.129)(827.661,-143.449)(826.5,-138.356)(825.307,-133.28)(826.023,-128.768)(826.739,-124.094)(825.459,-119.05)(826.13,-114.3)(826.774,-109.546)(825.376,-104.774)(825.956,-100.104)(824.504,-95.3588)(825.039,-90.6144)(825.546,-85.8669)(828.863,-169.419)(827.862,-164.259)(826.829,-159.117)(827.73,-154.358)(826.622,-149.318)(827.467,-144.56)(826.313,-139.465)(825.128,-134.388)(825.837,-129.956)(826.571,-125.203)(825.299,-120.158)(825.976,-115.409)(826.616,-110.735)(825.255,-105.724)(825.85,-100.975)(824.531,-95.1217)(825.065,-90.3771)(825.563,-85.7086)(826.594,-170.525)(827.497,-166.085)(828.439,-161.322)(827.388,-156.183)(828.273,-151.42)(827.147,-146.384)(826.004,-141.287)(826.803,-136.533)(825.561,-131.697)(826.293,-127.026)(827.01,-122.27)(825.72,-117.23)(826.38,-112.478)(827.003,-107.802)(825.596,-103.033)(826.175,-98.2822)(824.431,-95.9912)(824.943,-91.4844)(825.447,-86.8167)(828.781,-169.817)(827.783,-164.656)(828.701,-159.971)(827.642,-154.834)(826.551,-149.714)(827.384,-145.036)(826.233,-139.94)(825.05,-134.862)(825.813,-130.114)(826.511,-125.599)(825.229,-120.633)(825.91,-115.884)(826.563,-111.131)(827.178,-106.454)(825.792,-101.45)(824.739,-93.3033)(825.254,-88.6366)(827.974,-173.708)(828.96,-168.943)(827.909,-164.021)(826.875,-158.879)(827.775,-154.12)(826.665,-149.08)(827.509,-144.322)(826.353,-139.227)(825.154,-134.23)(825.912,-129.481)(826.643,-124.728)(825.368,-119.683)(826.009,-115.171)(826.648,-110.497)(825.286,-105.486)(825.879,-100.737)(824.375,-96.4654)(824.916,-91.7217)(825.422,-87.0541)(826.594,-170.525)(827.545,-165.847)(828.485,-161.083)(827.433,-155.945)(826.334,-150.902)(827.189,-146.146)(826.004,-141.287)(826.803,-136.533)(825.599,-131.46)(826.33,-126.788)(825.067,-121.74)(825.753,-116.992)(826.413,-112.24)(827.034,-107.564)(825.655,-102.558)(824.245,-97.5718)(824.449,-95.8331)(824.987,-91.089)(825.497,-86.3418)(828.124,-172.994)(829.105,-168.227)(828.081,-163.148)(827.042,-158.007)(827.937,-153.247)(826.836,-148.129)(825.69,-143.108)(826.5,-138.356)(825.307,-133.28)(826.06,-128.53)(826.774,-123.856)(825.459,-119.05)(826.13,-114.3)(826.774,-109.546)(825.397,-104.616)(825.985,-99.8662)(824.784,-92.9079)(825.304,-88.1619)</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (825.563,-85.7086), From: (584.842,85.5431) To : (1200,-800)</t>
+  </si>
+  <si>
+    <t>NAVI: m: -1.43954, c = 927.445</t>
+  </si>
+  <si>
+    <t>NAVI: Predicted Dist = 295.421</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = -33.0206 deg Set Distance = 1078.24mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !! Resetting distance,  1078.24  to 900mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 89.1  Read =  295.421</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 3243.99  Read =  295.421</t>
+  </si>
+  <si>
+    <t>MC:TURN:  -33.02058905742058  deg</t>
+  </si>
+  <si>
+    <t>TIME =  0.587099552154541 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.8516443219298965  rotations/s, ROTATIONS =  0.5 , TICKS =  10</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.0  rotations/s, ROTATIONS =  0.0 , TICKS =  0</t>
+  </si>
+  <si>
+    <t>ThetaL =  -41.05263157894737 ThetaR =  0.0</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1095.45  Read =  295.421</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 3225.31  Read =  295.421</t>
+  </si>
+  <si>
+    <t>TIME =  21.253365993499756 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.16467979712345135  rotations/s, ROTATIONS =  3.5 , TICKS =  70</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.20937859919981675  rotations/s, ROTATIONS =  4.45 , TICKS =  89</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.9500000000000002</t>
+  </si>
+  <si>
+    <t>BAD MOTOR DATA DETECTED! Difference &gt;= 70% || Difference &gt;= 0.4 rotations</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -32.84210526315789</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -24.63157894736842</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -32.84210526315789</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  714.712328691678</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 561.56mm and 114.947</t>
+  </si>
+  <si>
+    <t>D: x = 454.159, y = 330.286, a = 114.947</t>
+  </si>
+  <si>
+    <t>used%: x = 346.934, y = -3.16107, a =-45.6488</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=638.078, y=10.1207, w=36.0265 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8387Too few Corners!</t>
+  </si>
+  <si>
+    <t>B x size = 8387</t>
+  </si>
+  <si>
+    <t>Group size = 726</t>
+  </si>
+  <si>
+    <t>Points: (1022.78,584.462), (788.872,772.194), (537.996,936.462)</t>
+  </si>
+  <si>
+    <t>distance = 599.102</t>
+  </si>
+  <si>
+    <t>Inter Angle = 5.53376</t>
+  </si>
+  <si>
+    <t>mA= -0.802573, cA= 1405.32, mB= -0.654776, cB= 1288.73</t>
+  </si>
+  <si>
+    <t>Group size = 455</t>
+  </si>
+  <si>
+    <t>Points: (-410.747,1205.97), (-231.469,1445.41), (0.722505,1256)</t>
+  </si>
+  <si>
+    <t>distance = 414.5</t>
+  </si>
+  <si>
+    <t>Inter Angle = 87.6188</t>
+  </si>
+  <si>
+    <t>mA= 1.33556, cA= 1754.55, mB= -0.815731, cB= 1256.59</t>
+  </si>
+  <si>
+    <t>Group size = 541</t>
+  </si>
+  <si>
+    <t>Points: (-1130.25,278.28), (-1307,40.6632), (-1117.64,-191.942)</t>
+  </si>
+  <si>
+    <t>distance = 470.391</t>
+  </si>
+  <si>
+    <t>Inter Angle = 75.7922</t>
+  </si>
+  <si>
+    <t>mA= 1.34435, cA= 1797.73, mB= -1.22838, cB= -1564.82</t>
+  </si>
+  <si>
+    <t>Group size = 660</t>
+  </si>
+  <si>
+    <t>Points: (-286.281,-1206.5), (-517.754,-1019), (-662.697,-756.881)</t>
+  </si>
+  <si>
+    <t>distance = 586.385</t>
+  </si>
+  <si>
+    <t>Inter Angle = 22.0504</t>
+  </si>
+  <si>
+    <t>mA= -0.81003, cA= -1438.4, mB= -1.80843, cB= -1955.32</t>
+  </si>
+  <si>
+    <t>close corner len = 4</t>
+  </si>
+  <si>
+    <t>true corner len = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1445.41,  -1307</t>
+  </si>
+  <si>
+    <t>40.6632,LM: Corners = (-231.469,1445.41),(-1307,40.6632),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-231.469,1445.41) | (-1307,40.6632) | </t>
+  </si>
+  <si>
+    <t>D: r = 42.8066, a = -2.19582</t>
+  </si>
+  <si>
+    <t>G: r = 27.5104, a = 39.1392</t>
+  </si>
+  <si>
+    <t>used%: r = 64.2666, a = -141.756</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=656.167, y=-10.6059, w=39.1392 deg</t>
+  </si>
+  <si>
+    <t>D: r = -0.436401, a = -0.918824</t>
+  </si>
+  <si>
+    <t>G: r = 0.288563, a = 39.6033</t>
+  </si>
+  <si>
+    <t>used%: r = -66.1232, a = -50.5073</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=655.966, y=-10.8125, w=39.6033 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=655.966, y=-10.8125, w=39.6033 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2212.36,993.309) | (-418.938,967.875) | (-370.664,-820.898) | (2271.69,-1267.71) | (814.856,169.815) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (655.966,-10.8125) | 39.6033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT ACCURATE SCAN @ 17.3721 %</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 2334.65, xmin-379.777, ymax1076.33, ymin-1291.5</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = -95.0224</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 799.724</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (881.64,-170.629), From: (743.247,-143.543) To : (1200,-800)</t>
+  </si>
+  <si>
+    <t>NAVI: m: -1.43722, c = 924.668</t>
+  </si>
+  <si>
+    <t>NAVI: Predicted Dist = 141.019</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = -95.0224 deg Set Distance = 799.724mm</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  141.019  || measured =  12081.57</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  141.019  || measured =  12101.36</t>
+  </si>
+  <si>
+    <t>MC:TURN:  -95.02218553347139  deg</t>
+  </si>
+  <si>
+    <t>TIME =  1.6360044479370117 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.7640566023987525  rotations/s, ROTATIONS =  1.25 , TICKS =  25</t>
+  </si>
+  <si>
+    <t>ThetaL =  -102.63157894736841 ThetaR =  0.0</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 30.05  Read =  141.019</t>
+  </si>
+  <si>
+    <t>selected =  30.05</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 47.92  Read =  141.019</t>
+  </si>
+  <si>
+    <t>selected =  47.92</t>
+  </si>
+  <si>
+    <t>AVOIDANCE FORWARD left or right or both are too close to obstacle; LEFT =  47.92  RIGHT =  30.05</t>
+  </si>
+  <si>
+    <t>Avoidance forward changed from  799.724  to  -69.95000000000005</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  -69.95000000000005</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  -102.63157894736841</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -102.63157894736841</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -102.63157894736841</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -102.63157894736841</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 8691</t>
   </si>
 </sst>
 </file>
@@ -7421,6 +8100,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>94479</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3810E7-DD26-ACDA-4BC8-494313BD5447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="6096000"/>
+          <a:ext cx="6171429" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37333</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DA4A14-F034-6046-BBFB-06B13AE1C3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="6133333" cy="5190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8954,6 +9731,571 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE1F63E-B869-4DAE-BA61-F7669B132731}">
+  <dimension ref="A1:A124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-231.46899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3D6633-2CC7-4F1A-AD10-FE970B6A606B}">
   <dimension ref="A29:B34"/>
@@ -22441,8 +23783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E0BE2-123E-43F2-A3DE-5EB27A1FD116}">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A88"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22835,4 +24177,1236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8449B641-0D44-4F98-A1E4-AFB731210E35}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9828B21C-88F8-4B99-8AFC-C0E9533B5859}">
+  <dimension ref="A1:A126"/>
+  <sheetViews>
+    <sheetView topLeftCell="J33" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>689.92399999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7994F292-5D71-4C66-A0BA-F32EAA78F552}">
+  <dimension ref="A1:A96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1322.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325DE48E-7199-44B7-BE26-7D200971ED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD87474-98D2-42BA-8770-EEDF7078812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="2569">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -7554,6 +7555,504 @@
   </si>
   <si>
     <t>MAIN: FetchedScan = 8691</t>
+  </si>
+  <si>
+    <t>a1 = 4.52168, a2 = 5.43996, a3 = 4.40544, a4 = 6.5791, a5 = 3.8475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: afta_thread State: x=-3.29214, y=13.9732, w=-1.1442 deg</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 459.458mm and -82.3158</t>
+  </si>
+  <si>
+    <t>D: x = 52.3309, y = -456.468, a = -82.3158</t>
+  </si>
+  <si>
+    <t>used%: x = -782.457, y = 457.226, a =7294.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=46.4008, y=-584.249, w=-83.46 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points8603B x size = 8603</t>
+  </si>
+  <si>
+    <t>LM: Corners = (-2294.14,-492.366),(-927.258,-2095.19),(-711.505,1207.2),(-1030.99,-1977.81),</t>
+  </si>
+  <si>
+    <t>B x size = 8603</t>
+  </si>
+  <si>
+    <t>LM: Corners = (-2293.69,-491.868),(-930.373,-2097.53),(-711.153,1206.99),(-1031.28,-1977.51),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (-2294.93,-493.241),(-927.725,-2096.36),(-711.214,1207.05),(-1029.66,-1976.88),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (-2293.96,-491.574),(-924.94,-2093.99),(-711.721,1207.25),(-1027.97,-1981.97),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (-2294.24,-492.167),(-924.843,-2093.29),(-711.464,1207.21),(-1031.46,-1977.27),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-2294.24,-492.167) | (-924.843,-2093.29) | (-711.464,1207.21) | (-1031.46,-1977.27) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (46.4008,-584.249) | -83.46</t>
+  </si>
+  <si>
+    <t>G: r = 0, a = -83.46</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=46.4008, y=-584.249, w=-83.46 deg</t>
+  </si>
+  <si>
+    <t>D: r = 0, a = 1.36604e-05</t>
+  </si>
+  <si>
+    <t>G: r = 1.80332e-10, a = -83.46</t>
+  </si>
+  <si>
+    <t>used%: r = inf, a = -50.4476</t>
+  </si>
+  <si>
+    <t>D: r = -173.763, a = -21.4872</t>
+  </si>
+  <si>
+    <t>G: r = 73.8508, a = -75.9191</t>
+  </si>
+  <si>
+    <t>used%: r = -42.5009, a = -35.0949</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=79.0428, y=-518.004, w=-75.9191 deg</t>
+  </si>
+  <si>
+    <t>D: r = -60.6489, a = 2.00308</t>
+  </si>
+  <si>
+    <t>G: r = 11.7407, a = -76.7399</t>
+  </si>
+  <si>
+    <t>used%: r = -19.3584, a = -40.9795</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=67.3043, y=-518.23, w=-76.7399 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=67.3043, y=-518.23, w=-76.7399 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(912.593,653.757) | (-1442.56,1168.56) | (142.823,-1450.58) | (-2058.27,-854.504) | (-719.982,1686.74) | (-2108.84,96.4159) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (67.3043,-518.23) | -76.7399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT ACCURATE SCAN ADD NOTHING @ 8.77601 %</t>
+  </si>
+  <si>
+    <t>No of New Points = 3703</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 879.934, xmin-2032.04, ymax1185.43, ymin-1474.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traversed = (0,-500) 1</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (0,500)</t>
+  </si>
+  <si>
+    <t>Start = 0, -500</t>
+  </si>
+  <si>
+    <t>Goal = 0, 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path: (0, -500) (0, 0) (0, 500) </t>
+  </si>
+  <si>
+    <t>Dumped Traversed = (0,0) 1</t>
+  </si>
+  <si>
+    <t>Shortened Path: (0,500)</t>
+  </si>
+  <si>
+    <t>mapped = 0Go to -&gt; (0,500)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = 170.522</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 857.427</t>
+  </si>
+  <si>
+    <t>NAVI,GRID to visit: (0,500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVI: wallAvoidance collision Points = </t>
+  </si>
+  <si>
+    <t>mindistL: 1000 mindistR: 1000</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle after avoidance = 170.522</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (0,0), From: (183.335,-337.597) To : (0,500)</t>
+  </si>
+  <si>
+    <t>NAVI: m: -4.56866, c = 500</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = 170.522 deg Set Distance = 857.427mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 221.66  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  221.66</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 485.39  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  485.39</t>
+  </si>
+  <si>
+    <t>MC:TURN:  170.52140715565508  deg</t>
+  </si>
+  <si>
+    <t>TIME =  2.1463944911956787 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.023294879019255595  rotations/s, ROTATIONS =  0.05 , TICKS =  1</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.9783849188087349  rotations/s, ROTATIONS =  2.1 , TICKS =  42</t>
+  </si>
+  <si>
+    <t>ThetaL =  -4.105263157894738 ThetaR =  172.42105263157893</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1099.5  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1099.5</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1083.27  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1083.27</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  857.427</t>
+  </si>
+  <si>
+    <t>TIME =  3.139458179473877 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.1785473124601586  rotations/s, ROTATIONS =  3.7 , TICKS =  74</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.3218841477593672  rotations/s, ROTATIONS =  4.15 , TICKS =  83</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  172.42105263157893</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.4500000000000002</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  180.63157894736844</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  180.63157894736844</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  172.42105263157893</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  755.5530331883452</t>
+  </si>
+  <si>
+    <t>a1 = 3.79018, a2 = 3.84448, a3 = 3.79018, a4 = 4.02911, a5 = 3.63814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: afta_thread State: x=0.119781, y=-0.162002, w=0.0287642 deg</t>
+  </si>
+  <si>
+    <t>EKF UPDATE MOTION FOR 786.184mm and 98.3158</t>
+  </si>
+  <si>
+    <t>D: x = -114.095, y = 777.86, a = 98.3158</t>
+  </si>
+  <si>
+    <t>used%: x = 608.839, y = 582.413, a =341899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_motion State: x=-136.518, y=939.104, w=98.3446 deg</t>
+  </si>
+  <si>
+    <t>Number of CAR points9208B x size = 9208</t>
+  </si>
+  <si>
+    <t>LM: Corners = (718.896,232.786),(-2399.6,619.21),(-1319.35,-1029.43),(-620.912,2101.42),</t>
+  </si>
+  <si>
+    <t>B x size = 9208</t>
+  </si>
+  <si>
+    <t>LM: Corners = (718.417,231.909),(-2399.55,619.249),(-1319.97,-1030.37),(-619.861,2100.73),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (719.002,232.866),(-2396.59,615.118),(-1321.16,-1028.99),(-620.119,2100.41),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (718.877,231.953),(-2399.55,619.249),(-1321.41,-1028.74),(-620.336,2101.56),</t>
+  </si>
+  <si>
+    <t>LM: Corners = (718.983,232.404),(-2393.18,608.998),(-1319.85,-1028.25),(-620.257,2102.43),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(718.983,232.404) | (-2393.18,608.998) | (-1319.85,-1028.25) | (-620.257,2102.43) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (-136.518,939.104) | 98.3446</t>
+  </si>
+  <si>
+    <t>D: r = 6.10352e-05, a = 3.41509e-06</t>
+  </si>
+  <si>
+    <t>G: r = 1.61405e-05, a = 98.3446</t>
+  </si>
+  <si>
+    <t>used%: r = 26.4446, a = -90.6251</t>
+  </si>
+  <si>
+    <t>EKF: after_ekf State: x=-136.518, y=939.104, w=98.3446 deg</t>
+  </si>
+  <si>
+    <t>G: r = 0, a = 98.3446</t>
+  </si>
+  <si>
+    <t>D: r = 0, a = -6.83019e-06</t>
+  </si>
+  <si>
+    <t>G: r = 1.0043e-10, a = 98.3446</t>
+  </si>
+  <si>
+    <t>used%: r = inf, a = -24.5425</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAIN: after_ekf State: x=-136.518, y=939.104, w=98.3446 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-1269.37,-1197.41) | (831.673,-965.726) | (-1788.51,1044.35) | (-470.804,1616.75) | (-391.757,-1517.12) | (1072.39,-217.548) | (-2126.67,20.2976) | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT ACCURATE SCAN ADD NOTHING @ 4.02911 %</t>
+  </si>
+  <si>
+    <t>No of New Points = 5735</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 841.303, xmin-1791.76, ymax1410.49, ymin-1201.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traversed = (0,1000) 1</t>
+  </si>
+  <si>
+    <t>NAVI: nextPoint: We on some-axis and point on all exists</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (-500,0)</t>
+  </si>
+  <si>
+    <t>Start = 0, 1000</t>
+  </si>
+  <si>
+    <t>Goal = -500, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path: (0, 1000) (0, 500) (-500, 500) (-500, 0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumped Traversed = </t>
+  </si>
+  <si>
+    <t>Shortened Path: (0,500)(-500,500)(-500,0)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = -171.074</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 315.215</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle after avoidance = -171.074</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (0,0), From: (37.3319,812.996) To : (0,500)</t>
+  </si>
+  <si>
+    <t>NAVI: m: 8.38415, c = 500</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = -171.074 deg Set Distance = 315.215mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 656.96  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  656.96</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 697.69  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  697.69</t>
+  </si>
+  <si>
+    <t>MC:TURN:  -171.07431142795633  deg</t>
+  </si>
+  <si>
+    <t>TIME =  1.3928799629211426 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.5076676066154961  rotations/s, ROTATIONS =  2.1 , TICKS =  42</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.03589684777655943  rotations/s, ROTATIONS =  0.05 , TICKS =  1</t>
+  </si>
+  <si>
+    <t>ThetaL =  -172.42105263157893 ThetaR =  4.105263157894738</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  100000.0  || measured =  12085.09</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1536.68  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1536.68</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  315.215</t>
+  </si>
+  <si>
+    <t>TIME =  1.1300911903381348 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.9733727768206643  rotations/s, ROTATIONS =  1.1 , TICKS =  22</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.3273265138463604  rotations/s, ROTATIONS =  1.5 , TICKS =  30</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  -172.42105263157893</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.3999999999999999</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  28.736842105263147</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -143.6842105263158</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -143.6842105263158</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -172.42105263157893</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  224.62387473167024</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 606.67  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  606.67</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 631.9  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  631.9</t>
+  </si>
+  <si>
+    <t>MC:TURN:  89.97786510513961  deg</t>
+  </si>
+  <si>
+    <t>TIME =  0.8621957302093506 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.11598294505090963  rotations/s, ROTATIONS =  0.1 , TICKS =  2</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.2758123955600058  rotations/s, ROTATIONS =  1.1 , TICKS =  22</t>
+  </si>
+  <si>
+    <t>ThetaL =  -8.210526315789476 ThetaR =  90.31578947368423</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1197.39  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1197.39</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 896.0  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  896.0</t>
+  </si>
+  <si>
+    <t>AVOIDANCE FORWARD left or right or both are too close to obstacle; LEFT =  896.0  RIGHT =  1197.39</t>
+  </si>
+  <si>
+    <t>Avoidance forward changed from  848.252  to  796.0</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  796.0</t>
+  </si>
+  <si>
+    <t>TIME =  2.3700671195983887 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.624426569257831  rotations/s, ROTATIONS =  3.85 , TICKS =  77</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.6033301203064305  rotations/s, ROTATIONS =  3.8 , TICKS =  76</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  90.31578947368423</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.050000000000000266</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  90.31578947368423</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  90.31578947368423</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  90.31578947368423</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  786.1835615608458</t>
+  </si>
+  <si>
+    <t>MAIN: FetchedScan = 9208</t>
+  </si>
+  <si>
+    <t>motor part section before ab ove code</t>
   </si>
 </sst>
 </file>
@@ -8198,6 +8697,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561219</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F530473-7352-5D5F-A4BF-1F44EF7D56F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="381000"/>
+          <a:ext cx="6047619" cy="5114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>8762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661E379C-5D26-C2F5-640A-0E9A270B6551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18897600" y="571500"/>
+          <a:ext cx="6104762" cy="5152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9735,7 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE1F63E-B869-4DAE-BA61-F7669B132731}">
   <dimension ref="A1:A124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -10293,6 +10885,1041 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3198BDF-25E6-4351-B77B-9CF84D231DBD}">
+  <dimension ref="A2:W155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U103" workbookViewId="0">
+      <selection activeCell="X120" sqref="X120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2405</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2406</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2407</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2410</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2411</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2412</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2411</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2411</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2414</v>
+      </c>
+      <c r="W18" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2411</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2415</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>864</v>
+      </c>
+      <c r="W21" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2416</v>
+      </c>
+      <c r="W22" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2417</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2418</v>
+      </c>
+      <c r="W26" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>967</v>
+      </c>
+      <c r="W27" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2419</v>
+      </c>
+      <c r="W28" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2421</v>
+      </c>
+      <c r="W31" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2422</v>
+      </c>
+      <c r="W32" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2419</v>
+      </c>
+      <c r="W33" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2424</v>
+      </c>
+      <c r="W36" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2425</v>
+      </c>
+      <c r="W37" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2426</v>
+      </c>
+      <c r="W38" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2428</v>
+      </c>
+      <c r="W41" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2429</v>
+      </c>
+      <c r="W42" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2430</v>
+      </c>
+      <c r="W43" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2432</v>
+      </c>
+      <c r="W46" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>279</v>
+      </c>
+      <c r="W47" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2433</v>
+      </c>
+      <c r="W48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W54" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>284</v>
+      </c>
+      <c r="W56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2436</v>
+      </c>
+      <c r="W57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>286</v>
+      </c>
+      <c r="W58" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2437</v>
+      </c>
+      <c r="W59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>288</v>
+      </c>
+      <c r="W60" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>289</v>
+      </c>
+      <c r="W61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="W62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>291</v>
+      </c>
+      <c r="W63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2438</v>
+      </c>
+      <c r="W64" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>293</v>
+      </c>
+      <c r="W65" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2439</v>
+      </c>
+      <c r="W66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2440</v>
+      </c>
+      <c r="W67" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1172</v>
+      </c>
+      <c r="W68" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2441</v>
+      </c>
+      <c r="W69" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W70" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2443</v>
+      </c>
+      <c r="W71" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2444</v>
+      </c>
+      <c r="W72" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2438</v>
+      </c>
+      <c r="W73" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2445</v>
+      </c>
+      <c r="W74" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2446</v>
+      </c>
+      <c r="W75" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2447</v>
+      </c>
+      <c r="W76" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2448</v>
+      </c>
+      <c r="W77" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2449</v>
+      </c>
+      <c r="W78" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2450</v>
+      </c>
+      <c r="W79" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2452</v>
+      </c>
+      <c r="W82" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2259</v>
+      </c>
+      <c r="W83" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2453</v>
+      </c>
+      <c r="W84" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>305</v>
+      </c>
+      <c r="W85" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>306</v>
+      </c>
+      <c r="W86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2454</v>
+      </c>
+      <c r="W87" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2455</v>
+      </c>
+      <c r="W88" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2456</v>
+      </c>
+      <c r="W89" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2457</v>
+      </c>
+      <c r="W90" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2458</v>
+      </c>
+      <c r="W91" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2459</v>
+      </c>
+      <c r="W92" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2460</v>
+      </c>
+      <c r="W93" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2461</v>
+      </c>
+      <c r="W94" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2462</v>
+      </c>
+      <c r="W95" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1178</v>
+      </c>
+      <c r="W96" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2463</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2464</v>
+      </c>
+      <c r="W98" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2465</v>
+      </c>
+      <c r="W99" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2466</v>
+      </c>
+      <c r="W100" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2467</v>
+      </c>
+      <c r="W101" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2468</v>
+      </c>
+      <c r="W102" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2469</v>
+      </c>
+      <c r="W103" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2470</v>
+      </c>
+      <c r="W104" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2471</v>
+      </c>
+      <c r="W105" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2472</v>
+      </c>
+      <c r="W106" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2330</v>
+      </c>
+      <c r="W107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2473</v>
+      </c>
+      <c r="W108" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2472</v>
+      </c>
+      <c r="W109" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2330</v>
+      </c>
+      <c r="W110" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2474</v>
+      </c>
+      <c r="W111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2475</v>
+      </c>
+      <c r="W112" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2476</v>
+      </c>
+      <c r="W113" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>261</v>
+      </c>
+      <c r="W114" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="W115" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W118" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W121" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W122" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W123" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W124" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W125" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W126" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W127" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W128" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="129" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W129" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="130" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W130" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="131" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W131" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="132" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W132" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="133" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W133" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="134" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W134" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="135" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W135" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="136" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W136" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="137" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W137" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="138" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W138" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="139" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W139" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="140" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W140" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="141" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W141" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="142" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W142" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="143" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W143" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="144" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W144" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="145" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W145" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="146" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W146" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="147" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W147" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="148" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W148" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="149" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W149" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="150" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W150" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W151" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W152" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W153" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="154" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W155" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD87474-98D2-42BA-8770-EEDF7078812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69D8FF-0F1D-457D-A300-ED43782A6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="2591">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -8053,6 +8054,72 @@
   </si>
   <si>
     <t>motor part section before ab ove code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !! Resetting distance,  931.652  to 900mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 825.67  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  825.67</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 788.17  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  788.17</t>
+  </si>
+  <si>
+    <t>MC:TURN:  155.8462391489693  deg</t>
+  </si>
+  <si>
+    <t>TIME =  2.1579816341400146 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.11584899335792004  rotations/s, ROTATIONS =  0.25 , TICKS =  5</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.8804523495201922  rotations/s, ROTATIONS =  1.9 , TICKS =  38</t>
+  </si>
+  <si>
+    <t>ThetaL =  -20.526315789473685 ThetaR =  156.0</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1275.85  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1275.85</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1308.65  Read =  100000.0</t>
+  </si>
+  <si>
+    <t>selected =  1308.65</t>
+  </si>
+  <si>
+    <t>TIME =  13.384851217269897 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.28763861006034275  rotations/s, ROTATIONS =  3.85 , TICKS =  77</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.32872984006896316  rotations/s, ROTATIONS =  4.4 , TICKS =  88</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  156.0</t>
+  </si>
+  <si>
+    <t>Get diff for =  0.5500000000000003</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  164.21052631578948</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  172.42105263157893</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  164.21052631578948</t>
   </si>
 </sst>
 </file>
@@ -8790,6 +8857,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18286</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7355C9-912B-FB5C-5408-C92C1538F05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="952500"/>
+          <a:ext cx="6114286" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10892,7 +11008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3198BDF-25E6-4351-B77B-9CF84D231DBD}">
   <dimension ref="A2:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U103" workbookViewId="0">
+    <sheetView topLeftCell="U103" workbookViewId="0">
       <selection activeCell="X120" sqref="X120"/>
     </sheetView>
   </sheetViews>
@@ -11915,6 +12031,187 @@
     <row r="155" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W155" t="s">
         <v>2567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8266FD96-DB35-4AD9-93B9-04C0B3D1DF39}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/tests/new/speed data.xlsx
+++ b/tests/new/speed data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69D8FF-0F1D-457D-A300-ED43782A6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFB4E1-23D6-43C0-B1F0-34EFDBBB4C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="2657">
   <si>
     <t>MCAL: time Left =  0.008 s  0.002 s</t>
   </si>
@@ -8120,6 +8121,204 @@
   </si>
   <si>
     <t>MC: Angle turned =  164.21052631578948</t>
+  </si>
+  <si>
+    <t>Follow Path(0,500)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = 73.8724</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 1857.74</t>
+  </si>
+  <si>
+    <t>mindistL: 1000 mindistR: 46.0649</t>
+  </si>
+  <si>
+    <t>Angle change from: 73.8724 -&gt; -16.1276</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle after avoidance = -16.1276</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (0,0), From: (1736.57,-159.932) To : (0,500)</t>
+  </si>
+  <si>
+    <t>NAVI: m: -0.38002, c = 500</t>
+  </si>
+  <si>
+    <t>NAVI: Predicted Dist = 2107.74</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = -16.1276 deg Set Distance = 1857.74mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !! Resetting distance,  1857.74  to 900mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 824.32  Read =  2107.74</t>
+  </si>
+  <si>
+    <t>selected =  824.32</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 891.01  Read =  2107.74</t>
+  </si>
+  <si>
+    <t>selected =  891.01</t>
+  </si>
+  <si>
+    <t>MC:TURN:  -16.127673313121925  deg</t>
+  </si>
+  <si>
+    <t>TIME =  0.2828025817871094 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  0.7072071221420382  rotations/s, ROTATIONS =  0.2 , TICKS =  4</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.7072071221420382  rotations/s, ROTATIONS =  0.2 , TICKS =  4</t>
+  </si>
+  <si>
+    <t>ThetaL =  -16.421052631578952 ThetaR =  16.421052631578952</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 77.32  Read =  2107.74</t>
+  </si>
+  <si>
+    <t>selected =  77.32</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 889.66  Read =  2107.74</t>
+  </si>
+  <si>
+    <t>selected =  889.66</t>
+  </si>
+  <si>
+    <t>AVOIDANCE FORWARD left or right or both are too close to obstacle; LEFT =  889.66  RIGHT =  77.32</t>
+  </si>
+  <si>
+    <t>Avoidance forward changed from  900  to  -22.680000000000064</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  -22.680000000000064</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  -16.421052631578952</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  -16.421052631578952</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -16.421052631578952</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  -16.421052631578952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1863.7,827.256) | (-642.823,815.502) | (-724.027,-1025.44) | (1861.94,-1414.87) | </t>
+  </si>
+  <si>
+    <t>Fit Cartesian for: (544.032,167.663) | -174.966</t>
+  </si>
+  <si>
+    <t>Map Bounds = xmax: 2063.37, xmin-723.61, ymax1045.17, ymin-1393.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traversed = (600,300) 1</t>
+  </si>
+  <si>
+    <t>Follow Path(0,0)</t>
+  </si>
+  <si>
+    <t>mapped = 0Go to -&gt; (0,0)</t>
+  </si>
+  <si>
+    <t>ClosestPoint = (0,0)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle = 12.095</t>
+  </si>
+  <si>
+    <t>NAVI,GRID then distance = 552.821</t>
+  </si>
+  <si>
+    <t>NAVI,GRID to visit: (0,0)</t>
+  </si>
+  <si>
+    <t>NAVI,GRID rotate angle after avoidance = 12.095</t>
+  </si>
+  <si>
+    <t>NAVI: AvoidFor avoid: (0,0), From: (532.631,148.038) To : (0,0)</t>
+  </si>
+  <si>
+    <t>NAVI: m: 0.277938, c = 0</t>
+  </si>
+  <si>
+    <t>NAVI: Predicted Dist = 802.821</t>
+  </si>
+  <si>
+    <t>NAVI: Set angle = 12.095 deg Set Distance = 552.821mm</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 4883.23  Read =  802.821</t>
+  </si>
+  <si>
+    <t>selected =  802.821</t>
+  </si>
+  <si>
+    <t>Distance &lt; 12000 Measured: 1176.49  Read =  802.821</t>
+  </si>
+  <si>
+    <t>MC:TURN:  12.095024463652653  deg</t>
+  </si>
+  <si>
+    <t>TIME =  0.23088359832763672 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  8.87893299848409  rotations/s, ROTATIONS =  2.05 , TICKS =  41</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  0.6496780242793238  rotations/s, ROTATIONS =  0.15 , TICKS =  3</t>
+  </si>
+  <si>
+    <t>ThetaL =  -168.3157894736842 ThetaR =  12.31578947368421</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  802.821  || measured =  12085.21</t>
+  </si>
+  <si>
+    <t>12m &lt;= DISTANCE is set to  802.821  || measured =  12108.19</t>
+  </si>
+  <si>
+    <t>MC GO FORWARD FOR:  552.821</t>
+  </si>
+  <si>
+    <t>TIME =  2.034839630126953 s</t>
+  </si>
+  <si>
+    <t>LEFT SPEED =  1.3268858931313166  rotations/s, ROTATIONS =  2.7 , TICKS =  54</t>
+  </si>
+  <si>
+    <t>RIGHT SPEED =  1.2531700101795766  rotations/s, ROTATIONS =  2.55 , TICKS =  51</t>
+  </si>
+  <si>
+    <t>MC measured angle x =  12.31578947368421</t>
+  </si>
+  <si>
+    <t>MC: Straight angle_diff =  -8.210526315789519</t>
+  </si>
+  <si>
+    <t>MC: Possible angle =  4.105263157894693</t>
+  </si>
+  <si>
+    <t>MC: Post Difference angle =  -4.105263157894826</t>
+  </si>
+  <si>
+    <t>MC: Angle turned =  4.105263157894693</t>
+  </si>
+  <si>
+    <t>MC: distance moved =  551.3495107050087</t>
   </si>
 </sst>
 </file>
@@ -8906,6 +9105,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6929D64F-B5A8-15D8-3B44-A0D810635776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="6200000" cy="5257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12043,8 +12291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8266FD96-DB35-4AD9-93B9-04C0B3D1DF39}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12212,6 +12460,537 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9F5D7C-97E2-40C3-A1DC-5B56DD800D5E}">
+  <dimension ref="A1:N115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
